--- a/input/filters not in use/power_filter.xlsx
+++ b/input/filters not in use/power_filter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan\OneDrive\Desktop\ESRG DDPT template\DDPTemplateAutomationV2\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DDPTemplateAutomationV2\input\filters not in use\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66C13F9-A8B0-4048-8C4E-BC2891C2C91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64333A75-228D-4D8B-AF98-477AAD766D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BEADAB29-2F75-497A-AFCB-3C2BB776CB59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{BEADAB29-2F75-497A-AFCB-3C2BB776CB59}"/>
   </bookViews>
   <sheets>
     <sheet name="Power" sheetId="2" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>['GVA']</t>
   </si>
   <si>
-    <t>['netzero_9_imagine']</t>
-  </si>
-  <si>
     <t>[2020, 2030, 2040, 2050]</t>
   </si>
   <si>
@@ -300,12 +297,15 @@
   <si>
     <t>WorkbookID</t>
   </si>
+  <si>
+    <t>NZ10_2050A_08EESSNXCT_IMG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,92 +725,92 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.88671875" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.33203125" customWidth="1"/>
-    <col min="12" max="12" width="80.44140625" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.28515625" customWidth="1"/>
+    <col min="12" max="12" width="80.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="8" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="10">
         <v>24</v>
@@ -819,16 +819,16 @@
         <v>21</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>50</v>
@@ -873,13 +873,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A3:B22" si="0">A$2</f>
+        <v>2</v>
       </c>
       <c r="B3" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C3">
@@ -892,12 +892,12 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F3:G22" si="1">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G3" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -942,13 +942,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C4">
@@ -961,12 +961,12 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G4" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -1011,13 +1011,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B5" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C5">
@@ -1030,12 +1030,12 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G5" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -1080,13 +1080,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B6" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C6">
@@ -1099,12 +1099,12 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G6" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -1149,13 +1149,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B7" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C7">
@@ -1168,12 +1168,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G7" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1218,13 +1218,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B8" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C8">
@@ -1237,12 +1237,12 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G8" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1287,13 +1287,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B9" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C9">
@@ -1306,12 +1306,12 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G9" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -1356,13 +1356,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="8" customFormat="1">
+    <row r="10" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B10" s="9">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C10" s="8">
@@ -1375,12 +1375,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H10" t="s">
         <v>6</v>
@@ -1425,13 +1425,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="6" customFormat="1">
+    <row r="11" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B11" s="7">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C11" s="6">
@@ -1444,12 +1444,12 @@
         <v>1</v>
       </c>
       <c r="F11" s="7" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G11" s="7" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>12</v>
@@ -1494,13 +1494,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B12" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C12">
@@ -1513,12 +1513,12 @@
         <v>1</v>
       </c>
       <c r="F12" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G12" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H12" t="s">
         <v>36</v>
@@ -1563,13 +1563,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B13" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C13">
@@ -1582,12 +1582,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G13" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H13" t="s">
         <v>36</v>
@@ -1632,13 +1632,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B14" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C14">
@@ -1651,12 +1651,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G14" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H14" t="s">
         <v>36</v>
@@ -1701,13 +1701,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B15" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C15">
@@ -1720,12 +1720,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G15" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H15" t="s">
         <v>36</v>
@@ -1770,13 +1770,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B16" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C16">
@@ -1789,12 +1789,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G16" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H16" t="s">
         <v>36</v>
@@ -1839,13 +1839,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B17" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C17">
@@ -1858,12 +1858,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G17" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H17" t="s">
         <v>36</v>
@@ -1908,13 +1908,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B18" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C18">
@@ -1927,12 +1927,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H18" t="s">
         <v>36</v>
@@ -1977,13 +1977,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B19" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C19">
@@ -1996,12 +1996,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G19" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H19" t="s">
         <v>36</v>
@@ -2046,13 +2046,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B20" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C20">
@@ -2065,12 +2065,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H20" t="s">
         <v>36</v>
@@ -2115,13 +2115,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B21" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C21">
@@ -2134,12 +2134,12 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G21" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H21" t="s">
         <v>36</v>
@@ -2184,13 +2184,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="B22" s="5">
-        <f>B$2</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C22">
@@ -2203,12 +2203,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="1"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G22" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="1"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H22" t="s">
         <v>36</v>
@@ -2253,13 +2253,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="8" customFormat="1">
+    <row r="23" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A23:B42" si="2">A$2</f>
+        <v>2</v>
       </c>
       <c r="B23" s="9">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C23" s="8">
@@ -2272,12 +2272,12 @@
         <v>1</v>
       </c>
       <c r="F23" s="9" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F23:G42" si="3">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>36</v>
@@ -2322,13 +2322,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B24" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C24">
@@ -2341,12 +2341,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G24" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H24" t="s">
         <v>31</v>
@@ -2391,13 +2391,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B25" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C25">
@@ -2410,12 +2410,12 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G25" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H25" t="s">
         <v>31</v>
@@ -2460,13 +2460,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B26" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C26">
@@ -2479,12 +2479,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G26" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H26" t="s">
         <v>31</v>
@@ -2529,13 +2529,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B27" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C27">
@@ -2548,12 +2548,12 @@
         <v>1</v>
       </c>
       <c r="F27" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G27" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H27" t="s">
         <v>31</v>
@@ -2598,13 +2598,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="6" customFormat="1">
+    <row r="28" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B28" s="7">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C28" s="6">
@@ -2617,12 +2617,12 @@
         <v>1</v>
       </c>
       <c r="F28" s="7" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G28" s="7" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H28" s="6" t="s">
         <v>30</v>
@@ -2667,13 +2667,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B29" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C29">
@@ -2686,12 +2686,12 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G29" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H29" t="s">
         <v>29</v>
@@ -2736,13 +2736,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="8" customFormat="1">
+    <row r="30" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B30" s="9">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C30" s="8">
@@ -2755,12 +2755,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="9" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>29</v>
@@ -2805,13 +2805,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B31" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C31">
@@ -2824,12 +2824,12 @@
         <v>1</v>
       </c>
       <c r="F31" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G31" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
@@ -2874,13 +2874,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B32" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C32">
@@ -2893,12 +2893,12 @@
         <v>1</v>
       </c>
       <c r="F32" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G32" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -2943,13 +2943,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B33" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C33">
@@ -2962,12 +2962,12 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G33" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -3012,13 +3012,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B34" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C34">
@@ -3031,12 +3031,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G34" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -3081,13 +3081,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B35" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C35">
@@ -3100,12 +3100,12 @@
         <v>1</v>
       </c>
       <c r="F35" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G35" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -3150,13 +3150,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B36" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C36">
@@ -3169,12 +3169,12 @@
         <v>1</v>
       </c>
       <c r="F36" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G36" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -3219,13 +3219,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B37" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C37">
@@ -3238,12 +3238,12 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G37" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -3288,13 +3288,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B38" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C38">
@@ -3307,12 +3307,12 @@
         <v>1</v>
       </c>
       <c r="F38" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G38" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -3357,13 +3357,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B39" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C39">
@@ -3376,12 +3376,12 @@
         <v>1</v>
       </c>
       <c r="F39" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G39" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
@@ -3426,13 +3426,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B40" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C40">
@@ -3445,12 +3445,12 @@
         <v>1</v>
       </c>
       <c r="F40" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G40" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -3495,13 +3495,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B41" s="5">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C41">
@@ -3514,12 +3514,12 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G41" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
@@ -3564,13 +3564,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="8" customFormat="1">
+    <row r="42" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="B42" s="9">
-        <f>B$2</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="C42" s="8">
@@ -3583,12 +3583,12 @@
         <v>1</v>
       </c>
       <c r="F42" s="9" t="str">
-        <f>F$2</f>
+        <f t="shared" si="3"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G42" s="9" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="3"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H42" s="8" t="s">
         <v>12</v>
@@ -3633,13 +3633,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A43:B62" si="4">A$2</f>
+        <v>2</v>
       </c>
       <c r="B43" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C43">
@@ -3652,12 +3652,12 @@
         <v>1</v>
       </c>
       <c r="F43" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F43:G62" si="5">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G43" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H43" t="s">
         <v>6</v>
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B44" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C44">
@@ -3721,12 +3721,12 @@
         <v>1</v>
       </c>
       <c r="F44" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G44" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H44" t="s">
         <v>6</v>
@@ -3771,13 +3771,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B45" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C45">
@@ -3790,12 +3790,12 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G45" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H45" t="s">
         <v>6</v>
@@ -3840,13 +3840,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B46" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C46">
@@ -3859,12 +3859,12 @@
         <v>1</v>
       </c>
       <c r="F46" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G46" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H46" t="s">
         <v>6</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="8" customFormat="1">
+    <row r="47" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B47" s="9">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C47" s="8">
@@ -3928,12 +3928,12 @@
         <v>1</v>
       </c>
       <c r="F47" s="9" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G47" s="9" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H47" s="8" t="s">
         <v>6</v>
@@ -3978,13 +3978,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="6" customFormat="1">
+    <row r="48" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B48" s="7">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C48" s="6">
@@ -3997,12 +3997,12 @@
         <v>1</v>
       </c>
       <c r="F48" s="7" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G48" s="7" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>4</v>
@@ -4047,2995 +4047,2995 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B49" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F49" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G49" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B50" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F50" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G50" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B51" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F51" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G51" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B52" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F52" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G52" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B53" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G53" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B54" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F54" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G54" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B55" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G55" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B56" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F56" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G56" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B57" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F57" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G57" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B58" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F58" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G58" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B59" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F59" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G59" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B60" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F60" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G60" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B61" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F61" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G61" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
       <c r="B62" s="5">
-        <f>B$2</f>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="F62" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="5"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G62" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <f t="shared" si="5"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A63:B82" si="6">A$2</f>
+        <v>2</v>
       </c>
       <c r="B63" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F63:G82" si="7">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G63" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B64" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F64" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G64" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B65" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F65" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G65" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B66" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F66" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G66" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B67" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F67" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G67" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B68" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F68" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G68" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B69" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F69" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G69" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B70" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F70" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G70" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B71" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F71" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G71" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B72" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F72" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G72" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B73" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F73" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G73" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B74" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F74" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G74" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B75" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F75" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G75" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B76" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F76" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G76" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B77" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F77" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G77" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B78" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F78" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G78" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B79" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F79" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G79" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B80" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F80" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G80" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B81" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F81" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G81" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>2</v>
       </c>
       <c r="B82" s="5">
-        <f>B$2</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="F82" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="7"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G82" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <f t="shared" si="7"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A83:B102" si="8">A$2</f>
+        <v>2</v>
       </c>
       <c r="B83" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F83" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F83:G102" si="9">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G83" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B84" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F84" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G84" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B85" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F85" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G85" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B86" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F86" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G86" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B87" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F87" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G87" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B88" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F88" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G88" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B89" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F89" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G89" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B90" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F90" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G90" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B91" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F91" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G91" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B92" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F92" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G92" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B93" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F93" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G93" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B94" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F94" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G94" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B95" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F95" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G95" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B96" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F96" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G96" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B97" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F97" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G97" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B98" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F98" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G98" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B99" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F99" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G99" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B100" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F100" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G100" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B101" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F101" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G101" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>2</v>
       </c>
       <c r="B102" s="5">
-        <f>B$2</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="F102" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="9"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G102" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <f t="shared" si="9"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A103:B122" si="10">A$2</f>
+        <v>2</v>
       </c>
       <c r="B103" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F103" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F103:G122" si="11">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G103" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B104" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F104" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G104" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B105" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F105" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G105" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B106" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F106" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G106" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B107" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F107" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G107" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B108" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F108" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G108" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B109" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F109" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G109" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B110" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F110" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G110" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B111" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F111" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G111" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B112" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F112" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G112" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B113" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F113" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G113" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B114" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F114" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G114" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B115" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F115" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G115" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B116" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F116" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G116" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B117" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F117" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G117" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B118" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F118" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G118" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B119" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F119" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G119" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B120" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F120" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G120" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B121" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F121" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G121" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="B122" s="5">
-        <f>B$2</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="F122" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="11"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G122" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <f t="shared" si="11"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A123:B142" si="12">A$2</f>
+        <v>2</v>
       </c>
       <c r="B123" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F123" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F123:G142" si="13">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G123" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B124" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F124" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G124" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B125" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F125" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G125" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B126" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F126" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G126" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B127" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F127" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G127" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B128" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F128" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G128" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B129" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F129" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G129" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B130" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F130" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G130" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B131" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F131" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G131" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B132" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F132" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G132" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B133" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F133" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G133" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B134" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F134" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G134" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B135" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F135" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G135" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B136" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F136" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G136" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B137" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F137" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G137" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B138" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F138" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G138" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B139" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F139" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G139" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B140" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F140" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G140" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B141" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F141" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G141" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>2</v>
       </c>
       <c r="B142" s="5">
-        <f>B$2</f>
+        <f t="shared" si="12"/>
         <v>24</v>
       </c>
       <c r="F142" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="13"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G142" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <f t="shared" si="13"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A143:B162" si="14">A$2</f>
+        <v>2</v>
       </c>
       <c r="B143" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F143" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F143:G162" si="15">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G143" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B144" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F144" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G144" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B145" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F145" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G145" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B146" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F146" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G146" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B147" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F147" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G147" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B148" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F148" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G148" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B149" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F149" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G149" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B150" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F150" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G150" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B151" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F151" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G151" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B152" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F152" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G152" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B153" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F153" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G153" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B154" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F154" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G154" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B155" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F155" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G155" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B156" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F156" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G156" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B157" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F157" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G157" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B158" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F158" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G158" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B159" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F159" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G159" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B160" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F160" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G160" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B161" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F161" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G161" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>2</v>
       </c>
       <c r="B162" s="5">
-        <f>B$2</f>
+        <f t="shared" si="14"/>
         <v>24</v>
       </c>
       <c r="F162" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="15"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G162" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <f t="shared" si="15"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A163:B182" si="16">A$2</f>
+        <v>2</v>
       </c>
       <c r="B163" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F163" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F163:G182" si="17">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G163" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B164" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F164" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G164" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B165" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F165" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G165" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B166" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F166" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G166" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B167" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F167" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G167" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B168" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F168" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G168" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B169" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F169" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G169" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B170" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F170" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G170" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B171" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F171" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G171" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B172" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F172" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G172" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B173" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F173" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G173" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B174" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F174" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G174" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B175" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F175" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G175" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B176" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F176" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G176" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B177" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F177" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G177" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B178" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F178" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G178" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B179" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F179" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G179" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B180" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F180" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G180" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B181" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F181" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G181" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="16"/>
+        <v>2</v>
       </c>
       <c r="B182" s="5">
-        <f>B$2</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F182" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="17"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G182" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <f t="shared" si="17"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A183:B202" si="18">A$2</f>
+        <v>2</v>
       </c>
       <c r="B183" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F183" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F183:G202" si="19">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G183" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B184" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F184" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G184" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B185" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F185" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G185" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B186" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F186" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G186" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B187" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F187" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G187" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B188" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F188" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G188" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B189" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F189" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G189" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B190" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F190" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G190" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B191" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F191" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G191" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B192" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F192" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G192" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B193" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F193" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G193" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B194" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F194" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G194" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B195" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F195" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G195" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B196" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F196" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G196" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B197" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F197" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G197" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B198" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F198" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G198" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B199" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F199" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G199" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B200" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F200" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G200" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B201" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F201" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G201" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="18"/>
+        <v>2</v>
       </c>
       <c r="B202" s="5">
-        <f>B$2</f>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="F202" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="19"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G202" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <f t="shared" si="19"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" ref="A203:B214" si="20">A$2</f>
+        <v>2</v>
       </c>
       <c r="B203" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F203" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" ref="F203:G214" si="21">F$2</f>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G203" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B204" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F204" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G204" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B205" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F205" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G205" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B206" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F206" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G206" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B207" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F207" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G207" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B208" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F208" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G208" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B209" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F209" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G209" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B210" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F210" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G210" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B211" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F211" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G211" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B212" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F212" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G212" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B213" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F213" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G213" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
-        <f>A$2</f>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>2</v>
       </c>
       <c r="B214" s="5">
-        <f>B$2</f>
+        <f t="shared" si="20"/>
         <v>24</v>
       </c>
       <c r="F214" s="5" t="str">
-        <f>F$2</f>
+        <f t="shared" si="21"/>
         <v>[2020, 2030, 2040, 2050]</v>
       </c>
       <c r="G214" s="5" t="str">
-        <f>G$2</f>
-        <v>['netzero_9_imagine']</v>
-      </c>
-    </row>
-    <row r="267" spans="1:21">
+        <f t="shared" si="21"/>
+        <v>NZ10_2050A_08EESSNXCT_IMG</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -7058,7 +7058,7 @@
       <c r="T267" s="2"/>
       <c r="U267" s="3"/>
     </row>
-    <row r="268" spans="1:21">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -7081,7 +7081,7 @@
       <c r="T268" s="2"/>
       <c r="U268" s="2"/>
     </row>
-    <row r="269" spans="1:21">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -7104,7 +7104,7 @@
       <c r="T269" s="3"/>
       <c r="U269" s="3"/>
     </row>
-    <row r="270" spans="1:21">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -7127,7 +7127,7 @@
       <c r="T270" s="2"/>
       <c r="U270" s="2"/>
     </row>
-    <row r="271" spans="1:21">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -7150,7 +7150,7 @@
       <c r="T271" s="3"/>
       <c r="U271" s="3"/>
     </row>
-    <row r="272" spans="1:21">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -7173,7 +7173,7 @@
       <c r="T272" s="2"/>
       <c r="U272" s="2"/>
     </row>
-    <row r="273" spans="1:21">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -7196,7 +7196,7 @@
       <c r="T273" s="3"/>
       <c r="U273" s="3"/>
     </row>
-    <row r="274" spans="1:21">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -7219,7 +7219,7 @@
       <c r="T274" s="2"/>
       <c r="U274" s="2"/>
     </row>
-    <row r="275" spans="1:21">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -7242,7 +7242,7 @@
       <c r="T275" s="3"/>
       <c r="U275" s="3"/>
     </row>
-    <row r="276" spans="1:21">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -7265,7 +7265,7 @@
       <c r="T276" s="3"/>
       <c r="U276" s="3"/>
     </row>
-    <row r="277" spans="1:21">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -7288,7 +7288,7 @@
       <c r="T277" s="3"/>
       <c r="U277" s="3"/>
     </row>
-    <row r="278" spans="1:21">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -7311,7 +7311,7 @@
       <c r="T278" s="3"/>
       <c r="U278" s="3"/>
     </row>
-    <row r="279" spans="1:21">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -7334,7 +7334,7 @@
       <c r="T279" s="2"/>
       <c r="U279" s="2"/>
     </row>
-    <row r="280" spans="1:21">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -7357,7 +7357,7 @@
       <c r="T280" s="2"/>
       <c r="U280" s="1"/>
     </row>
-    <row r="281" spans="1:21">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -7380,7 +7380,7 @@
       <c r="T281" s="2"/>
       <c r="U281" s="1"/>
     </row>
-    <row r="282" spans="1:21">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -7403,7 +7403,7 @@
       <c r="T282" s="2"/>
       <c r="U282" s="1"/>
     </row>
-    <row r="283" spans="1:21">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -7426,7 +7426,7 @@
       <c r="T283" s="2"/>
       <c r="U283" s="1"/>
     </row>
-    <row r="284" spans="1:21">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -7449,7 +7449,7 @@
       <c r="T284" s="2"/>
       <c r="U284" s="1"/>
     </row>
-    <row r="285" spans="1:21">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -7472,7 +7472,7 @@
       <c r="T285" s="2"/>
       <c r="U285" s="2"/>
     </row>
-    <row r="286" spans="1:21">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -7495,7 +7495,7 @@
       <c r="T286" s="2"/>
       <c r="U286" s="2"/>
     </row>
-    <row r="287" spans="1:21">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -7518,7 +7518,7 @@
       <c r="T287" s="3"/>
       <c r="U287" s="4"/>
     </row>
-    <row r="288" spans="1:21">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -7541,7 +7541,7 @@
       <c r="T288" s="3"/>
       <c r="U288" s="3"/>
     </row>
-    <row r="289" spans="1:21">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -7564,7 +7564,7 @@
       <c r="T289" s="3"/>
       <c r="U289" s="3"/>
     </row>
-    <row r="290" spans="1:21">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -7587,7 +7587,7 @@
       <c r="T290" s="2"/>
       <c r="U290" s="2"/>
     </row>
-    <row r="291" spans="1:21">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -7610,7 +7610,7 @@
       <c r="T291" s="3"/>
       <c r="U291" s="3"/>
     </row>
-    <row r="292" spans="1:21">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -7633,7 +7633,7 @@
       <c r="T292" s="2"/>
       <c r="U292" s="2"/>
     </row>
-    <row r="293" spans="1:21">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -7656,7 +7656,7 @@
       <c r="T293" s="2"/>
       <c r="U293" s="2"/>
     </row>
-    <row r="294" spans="1:21">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -7679,7 +7679,7 @@
       <c r="T294" s="2"/>
       <c r="U294" s="2"/>
     </row>
-    <row r="295" spans="1:21">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -7702,7 +7702,7 @@
       <c r="T295" s="2"/>
       <c r="U295" s="1"/>
     </row>
-    <row r="296" spans="1:21">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -7725,7 +7725,7 @@
       <c r="T296" s="3"/>
       <c r="U296" s="1"/>
     </row>
-    <row r="297" spans="1:21">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -7748,7 +7748,7 @@
       <c r="T297" s="3"/>
       <c r="U297" s="1"/>
     </row>
-    <row r="298" spans="1:21">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -7771,7 +7771,7 @@
       <c r="T298" s="2"/>
       <c r="U298" s="1"/>
     </row>
-    <row r="299" spans="1:21">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -7794,7 +7794,7 @@
       <c r="T299" s="3"/>
       <c r="U299" s="1"/>
     </row>
-    <row r="300" spans="1:21">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -7817,7 +7817,7 @@
       <c r="T300" s="2"/>
       <c r="U300" s="1"/>
     </row>
-    <row r="301" spans="1:21">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -7840,7 +7840,7 @@
       <c r="T301" s="2"/>
       <c r="U301" s="1"/>
     </row>
-    <row r="302" spans="1:21">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -7863,7 +7863,7 @@
       <c r="T302" s="2"/>
       <c r="U302" s="1"/>
     </row>
-    <row r="303" spans="1:21">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -7886,7 +7886,7 @@
       <c r="T303" s="2"/>
       <c r="U303" s="1"/>
     </row>
-    <row r="304" spans="1:21">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -7909,7 +7909,7 @@
       <c r="T304" s="3"/>
       <c r="U304" s="1"/>
     </row>
-    <row r="305" spans="1:21">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -7932,7 +7932,7 @@
       <c r="T305" s="3"/>
       <c r="U305" s="1"/>
     </row>
-    <row r="306" spans="1:21">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -7955,7 +7955,7 @@
       <c r="T306" s="2"/>
       <c r="U306" s="1"/>
     </row>
-    <row r="307" spans="1:21">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -7978,7 +7978,7 @@
       <c r="T307" s="2"/>
       <c r="U307" s="1"/>
     </row>
-    <row r="308" spans="1:21">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -8001,7 +8001,7 @@
       <c r="T308" s="2"/>
       <c r="U308" s="1"/>
     </row>
-    <row r="309" spans="1:21">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -8024,7 +8024,7 @@
       <c r="T309" s="2"/>
       <c r="U309" s="1"/>
     </row>
-    <row r="310" spans="1:21">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -8047,7 +8047,7 @@
       <c r="T310" s="2"/>
       <c r="U310" s="1"/>
     </row>
-    <row r="311" spans="1:21">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -8070,7 +8070,7 @@
       <c r="T311" s="3"/>
       <c r="U311" s="1"/>
     </row>
-    <row r="312" spans="1:21">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -8093,7 +8093,7 @@
       <c r="T312" s="2"/>
       <c r="U312" s="2"/>
     </row>
-    <row r="313" spans="1:21">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -8116,7 +8116,7 @@
       <c r="T313" s="2"/>
       <c r="U313" s="2"/>
     </row>
-    <row r="314" spans="1:21">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -8139,7 +8139,7 @@
       <c r="T314" s="2"/>
       <c r="U314" s="1"/>
     </row>
-    <row r="315" spans="1:21">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -8162,7 +8162,7 @@
       <c r="T315" s="3"/>
       <c r="U315" s="1"/>
     </row>
-    <row r="316" spans="1:21">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -8185,7 +8185,7 @@
       <c r="T316" s="3"/>
       <c r="U316" s="1"/>
     </row>
-    <row r="317" spans="1:21">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -8208,7 +8208,7 @@
       <c r="T317" s="2"/>
       <c r="U317" s="1"/>
     </row>
-    <row r="318" spans="1:21">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -8231,7 +8231,7 @@
       <c r="T318" s="3"/>
       <c r="U318" s="1"/>
     </row>
-    <row r="319" spans="1:21">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -8254,7 +8254,7 @@
       <c r="T319" s="2"/>
       <c r="U319" s="1"/>
     </row>
-    <row r="320" spans="1:21">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -8277,7 +8277,7 @@
       <c r="T320" s="2"/>
       <c r="U320" s="1"/>
     </row>
-    <row r="321" spans="1:21">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -8300,7 +8300,7 @@
       <c r="T321" s="2"/>
       <c r="U321" s="1"/>
     </row>
-    <row r="322" spans="1:21">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -8323,7 +8323,7 @@
       <c r="T322" s="2"/>
       <c r="U322" s="1"/>
     </row>
-    <row r="323" spans="1:21">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -8346,7 +8346,7 @@
       <c r="T323" s="3"/>
       <c r="U323" s="1"/>
     </row>
-    <row r="324" spans="1:21">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -8369,7 +8369,7 @@
       <c r="T324" s="3"/>
       <c r="U324" s="1"/>
     </row>
-    <row r="325" spans="1:21">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -8392,7 +8392,7 @@
       <c r="T325" s="2"/>
       <c r="U325" s="1"/>
     </row>
-    <row r="326" spans="1:21">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -8415,7 +8415,7 @@
       <c r="T326" s="2"/>
       <c r="U326" s="1"/>
     </row>
-    <row r="327" spans="1:21">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -8438,7 +8438,7 @@
       <c r="T327" s="2"/>
       <c r="U327" s="1"/>
     </row>
-    <row r="328" spans="1:21">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -8461,7 +8461,7 @@
       <c r="T328" s="2"/>
       <c r="U328" s="1"/>
     </row>
-    <row r="329" spans="1:21">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -8484,7 +8484,7 @@
       <c r="T329" s="2"/>
       <c r="U329" s="1"/>
     </row>
-    <row r="330" spans="1:21">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -8507,7 +8507,7 @@
       <c r="T330" s="3"/>
       <c r="U330" s="1"/>
     </row>
-    <row r="331" spans="1:21">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -8530,7 +8530,7 @@
       <c r="T331" s="2"/>
       <c r="U331" s="2"/>
     </row>
-    <row r="332" spans="1:21">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -8553,7 +8553,7 @@
       <c r="T332" s="2"/>
       <c r="U332" s="2"/>
     </row>
-    <row r="333" spans="1:21">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -8576,7 +8576,7 @@
       <c r="T333" s="2"/>
       <c r="U333" s="2"/>
     </row>
-    <row r="334" spans="1:21">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -8599,7 +8599,7 @@
       <c r="T334" s="2"/>
       <c r="U334" s="2"/>
     </row>
-    <row r="335" spans="1:21">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -8622,7 +8622,7 @@
       <c r="T335" s="2"/>
       <c r="U335" s="1"/>
     </row>
-    <row r="336" spans="1:21">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -8645,7 +8645,7 @@
       <c r="T336" s="3"/>
       <c r="U336" s="1"/>
     </row>
-    <row r="337" spans="1:21">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -8668,7 +8668,7 @@
       <c r="T337" s="3"/>
       <c r="U337" s="1"/>
     </row>
-    <row r="338" spans="1:21">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -8691,7 +8691,7 @@
       <c r="T338" s="2"/>
       <c r="U338" s="1"/>
     </row>
-    <row r="339" spans="1:21">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -8714,7 +8714,7 @@
       <c r="T339" s="3"/>
       <c r="U339" s="1"/>
     </row>
-    <row r="340" spans="1:21">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -8737,7 +8737,7 @@
       <c r="T340" s="2"/>
       <c r="U340" s="1"/>
     </row>
-    <row r="341" spans="1:21">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -8760,7 +8760,7 @@
       <c r="T341" s="2"/>
       <c r="U341" s="1"/>
     </row>
-    <row r="342" spans="1:21">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -8783,7 +8783,7 @@
       <c r="T342" s="2"/>
       <c r="U342" s="1"/>
     </row>
-    <row r="343" spans="1:21">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -8806,7 +8806,7 @@
       <c r="T343" s="2"/>
       <c r="U343" s="1"/>
     </row>
-    <row r="344" spans="1:21">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -8829,7 +8829,7 @@
       <c r="T344" s="3"/>
       <c r="U344" s="1"/>
     </row>
-    <row r="345" spans="1:21">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -8852,7 +8852,7 @@
       <c r="T345" s="3"/>
       <c r="U345" s="1"/>
     </row>
-    <row r="346" spans="1:21">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -8875,7 +8875,7 @@
       <c r="T346" s="2"/>
       <c r="U346" s="1"/>
     </row>
-    <row r="347" spans="1:21">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -8898,7 +8898,7 @@
       <c r="T347" s="2"/>
       <c r="U347" s="1"/>
     </row>
-    <row r="348" spans="1:21">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -8921,7 +8921,7 @@
       <c r="T348" s="2"/>
       <c r="U348" s="1"/>
     </row>
-    <row r="349" spans="1:21">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -8944,7 +8944,7 @@
       <c r="T349" s="2"/>
       <c r="U349" s="1"/>
     </row>
-    <row r="350" spans="1:21">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -8967,7 +8967,7 @@
       <c r="T350" s="2"/>
       <c r="U350" s="1"/>
     </row>
-    <row r="351" spans="1:21">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -8990,7 +8990,7 @@
       <c r="T351" s="3"/>
       <c r="U351" s="1"/>
     </row>
-    <row r="352" spans="1:21">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -9013,7 +9013,7 @@
       <c r="T352" s="2"/>
       <c r="U352" s="2"/>
     </row>
-    <row r="353" spans="1:21">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -9036,7 +9036,7 @@
       <c r="T353" s="2"/>
       <c r="U353" s="2"/>
     </row>
-    <row r="354" spans="1:21">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -9059,7 +9059,7 @@
       <c r="T354" s="2"/>
       <c r="U354" s="1"/>
     </row>
-    <row r="355" spans="1:21">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -9082,7 +9082,7 @@
       <c r="T355" s="3"/>
       <c r="U355" s="1"/>
     </row>
-    <row r="356" spans="1:21">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -9105,7 +9105,7 @@
       <c r="T356" s="3"/>
       <c r="U356" s="1"/>
     </row>
-    <row r="357" spans="1:21">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -9128,7 +9128,7 @@
       <c r="T357" s="2"/>
       <c r="U357" s="1"/>
     </row>
-    <row r="358" spans="1:21">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -9151,7 +9151,7 @@
       <c r="T358" s="3"/>
       <c r="U358" s="1"/>
     </row>
-    <row r="359" spans="1:21">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -9174,7 +9174,7 @@
       <c r="T359" s="2"/>
       <c r="U359" s="1"/>
     </row>
-    <row r="360" spans="1:21">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -9197,7 +9197,7 @@
       <c r="T360" s="2"/>
       <c r="U360" s="1"/>
     </row>
-    <row r="361" spans="1:21">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -9220,7 +9220,7 @@
       <c r="T361" s="2"/>
       <c r="U361" s="1"/>
     </row>
-    <row r="362" spans="1:21">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -9243,7 +9243,7 @@
       <c r="T362" s="2"/>
       <c r="U362" s="1"/>
     </row>
-    <row r="363" spans="1:21">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -9266,7 +9266,7 @@
       <c r="T363" s="3"/>
       <c r="U363" s="1"/>
     </row>
-    <row r="364" spans="1:21">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -9289,7 +9289,7 @@
       <c r="T364" s="3"/>
       <c r="U364" s="1"/>
     </row>
-    <row r="365" spans="1:21">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -9312,7 +9312,7 @@
       <c r="T365" s="2"/>
       <c r="U365" s="1"/>
     </row>
-    <row r="366" spans="1:21">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -9335,7 +9335,7 @@
       <c r="T366" s="2"/>
       <c r="U366" s="1"/>
     </row>
-    <row r="367" spans="1:21">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -9358,7 +9358,7 @@
       <c r="T367" s="2"/>
       <c r="U367" s="1"/>
     </row>
-    <row r="368" spans="1:21">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -9381,7 +9381,7 @@
       <c r="T368" s="2"/>
       <c r="U368" s="1"/>
     </row>
-    <row r="369" spans="1:21">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -9404,7 +9404,7 @@
       <c r="T369" s="2"/>
       <c r="U369" s="1"/>
     </row>
-    <row r="370" spans="1:21">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -9427,7 +9427,7 @@
       <c r="T370" s="3"/>
       <c r="U370" s="1"/>
     </row>
-    <row r="371" spans="1:21">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -9450,7 +9450,7 @@
       <c r="T371" s="2"/>
       <c r="U371" s="2"/>
     </row>
-    <row r="372" spans="1:21">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -9473,7 +9473,7 @@
       <c r="T372" s="2"/>
       <c r="U372" s="2"/>
     </row>
-    <row r="373" spans="1:21">
+    <row r="373" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -9496,7 +9496,7 @@
       <c r="T373" s="2"/>
       <c r="U373" s="2"/>
     </row>
-    <row r="374" spans="1:21">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -9519,7 +9519,7 @@
       <c r="T374" s="2"/>
       <c r="U374" s="2"/>
     </row>
-    <row r="375" spans="1:21">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -9542,7 +9542,7 @@
       <c r="T375" s="2"/>
       <c r="U375" s="1"/>
     </row>
-    <row r="376" spans="1:21">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -9565,7 +9565,7 @@
       <c r="T376" s="3"/>
       <c r="U376" s="1"/>
     </row>
-    <row r="377" spans="1:21">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -9588,7 +9588,7 @@
       <c r="T377" s="3"/>
       <c r="U377" s="1"/>
     </row>
-    <row r="378" spans="1:21">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -9611,7 +9611,7 @@
       <c r="T378" s="2"/>
       <c r="U378" s="1"/>
     </row>
-    <row r="379" spans="1:21">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -9634,7 +9634,7 @@
       <c r="T379" s="3"/>
       <c r="U379" s="1"/>
     </row>
-    <row r="380" spans="1:21">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -9657,7 +9657,7 @@
       <c r="T380" s="2"/>
       <c r="U380" s="1"/>
     </row>
-    <row r="381" spans="1:21">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -9680,7 +9680,7 @@
       <c r="T381" s="2"/>
       <c r="U381" s="1"/>
     </row>
-    <row r="382" spans="1:21">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -9703,7 +9703,7 @@
       <c r="T382" s="2"/>
       <c r="U382" s="1"/>
     </row>
-    <row r="383" spans="1:21">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -9726,7 +9726,7 @@
       <c r="T383" s="2"/>
       <c r="U383" s="1"/>
     </row>
-    <row r="384" spans="1:21">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -9749,7 +9749,7 @@
       <c r="T384" s="3"/>
       <c r="U384" s="1"/>
     </row>
-    <row r="385" spans="1:21">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -9772,7 +9772,7 @@
       <c r="T385" s="3"/>
       <c r="U385" s="1"/>
     </row>
-    <row r="386" spans="1:21">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -9795,7 +9795,7 @@
       <c r="T386" s="2"/>
       <c r="U386" s="1"/>
     </row>
-    <row r="387" spans="1:21">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -9818,7 +9818,7 @@
       <c r="T387" s="2"/>
       <c r="U387" s="1"/>
     </row>
-    <row r="388" spans="1:21">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -9841,7 +9841,7 @@
       <c r="T388" s="2"/>
       <c r="U388" s="1"/>
     </row>
-    <row r="389" spans="1:21">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -9864,7 +9864,7 @@
       <c r="T389" s="2"/>
       <c r="U389" s="1"/>
     </row>
-    <row r="390" spans="1:21">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -9887,7 +9887,7 @@
       <c r="T390" s="2"/>
       <c r="U390" s="1"/>
     </row>
-    <row r="391" spans="1:21">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -9910,7 +9910,7 @@
       <c r="T391" s="3"/>
       <c r="U391" s="1"/>
     </row>
-    <row r="392" spans="1:21">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -9933,7 +9933,7 @@
       <c r="T392" s="2"/>
       <c r="U392" s="2"/>
     </row>
-    <row r="393" spans="1:21">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -9956,7 +9956,7 @@
       <c r="T393" s="2"/>
       <c r="U393" s="2"/>
     </row>
-    <row r="394" spans="1:21">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -9978,7 +9978,7 @@
       <c r="T394" s="2"/>
       <c r="U394" s="1"/>
     </row>
-    <row r="395" spans="1:21">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -10001,7 +10001,7 @@
       <c r="T395" s="3"/>
       <c r="U395" s="1"/>
     </row>
-    <row r="396" spans="1:21">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -10024,7 +10024,7 @@
       <c r="T396" s="3"/>
       <c r="U396" s="1"/>
     </row>
-    <row r="397" spans="1:21">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -10047,7 +10047,7 @@
       <c r="T397" s="2"/>
       <c r="U397" s="1"/>
     </row>
-    <row r="398" spans="1:21">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -10070,7 +10070,7 @@
       <c r="T398" s="3"/>
       <c r="U398" s="1"/>
     </row>
-    <row r="399" spans="1:21">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -10093,7 +10093,7 @@
       <c r="T399" s="2"/>
       <c r="U399" s="1"/>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -10116,7 +10116,7 @@
       <c r="T400" s="2"/>
       <c r="U400" s="1"/>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -10139,7 +10139,7 @@
       <c r="T401" s="2"/>
       <c r="U401" s="1"/>
     </row>
-    <row r="402" spans="1:21">
+    <row r="402" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -10162,7 +10162,7 @@
       <c r="T402" s="2"/>
       <c r="U402" s="1"/>
     </row>
-    <row r="403" spans="1:21">
+    <row r="403" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -10185,7 +10185,7 @@
       <c r="T403" s="2"/>
       <c r="U403" s="1"/>
     </row>
-    <row r="404" spans="1:21">
+    <row r="404" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -10208,7 +10208,7 @@
       <c r="T404" s="3"/>
       <c r="U404" s="1"/>
     </row>
-    <row r="405" spans="1:21">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -10231,7 +10231,7 @@
       <c r="T405" s="3"/>
       <c r="U405" s="1"/>
     </row>
-    <row r="406" spans="1:21">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -10254,7 +10254,7 @@
       <c r="T406" s="2"/>
       <c r="U406" s="1"/>
     </row>
-    <row r="407" spans="1:21">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -10277,7 +10277,7 @@
       <c r="T407" s="2"/>
       <c r="U407" s="1"/>
     </row>
-    <row r="408" spans="1:21">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -10300,7 +10300,7 @@
       <c r="T408" s="2"/>
       <c r="U408" s="1"/>
     </row>
-    <row r="409" spans="1:21">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -10323,7 +10323,7 @@
       <c r="T409" s="2"/>
       <c r="U409" s="1"/>
     </row>
-    <row r="410" spans="1:21">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -10346,7 +10346,7 @@
       <c r="T410" s="3"/>
       <c r="U410" s="1"/>
     </row>
-    <row r="411" spans="1:21">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -10369,7 +10369,7 @@
       <c r="T411" s="2"/>
       <c r="U411" s="2"/>
     </row>
-    <row r="412" spans="1:21">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -10392,7 +10392,7 @@
       <c r="T412" s="2"/>
       <c r="U412" s="2"/>
     </row>
-    <row r="413" spans="1:21">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -10415,7 +10415,7 @@
       <c r="T413" s="2"/>
       <c r="U413" s="2"/>
     </row>
-    <row r="414" spans="1:21">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -10438,7 +10438,7 @@
       <c r="T414" s="2"/>
       <c r="U414" s="2"/>
     </row>
-    <row r="415" spans="1:21">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -10461,7 +10461,7 @@
       <c r="T415" s="2"/>
       <c r="U415" s="1"/>
     </row>
-    <row r="416" spans="1:21">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -10484,7 +10484,7 @@
       <c r="T416" s="3"/>
       <c r="U416" s="1"/>
     </row>
-    <row r="417" spans="1:21">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -10507,7 +10507,7 @@
       <c r="T417" s="3"/>
       <c r="U417" s="1"/>
     </row>
-    <row r="418" spans="1:21">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -10530,7 +10530,7 @@
       <c r="T418" s="2"/>
       <c r="U418" s="1"/>
     </row>
-    <row r="419" spans="1:21">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -10553,7 +10553,7 @@
       <c r="T419" s="3"/>
       <c r="U419" s="1"/>
     </row>
-    <row r="420" spans="1:21">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -10576,7 +10576,7 @@
       <c r="T420" s="2"/>
       <c r="U420" s="1"/>
     </row>
-    <row r="421" spans="1:21">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -10599,7 +10599,7 @@
       <c r="T421" s="2"/>
       <c r="U421" s="1"/>
     </row>
-    <row r="422" spans="1:21">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -10622,7 +10622,7 @@
       <c r="T422" s="2"/>
       <c r="U422" s="1"/>
     </row>
-    <row r="423" spans="1:21">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -10645,7 +10645,7 @@
       <c r="T423" s="2"/>
       <c r="U423" s="1"/>
     </row>
-    <row r="424" spans="1:21">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -10668,7 +10668,7 @@
       <c r="T424" s="3"/>
       <c r="U424" s="1"/>
     </row>
-    <row r="425" spans="1:21">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -10691,7 +10691,7 @@
       <c r="T425" s="3"/>
       <c r="U425" s="1"/>
     </row>
-    <row r="426" spans="1:21">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -10714,7 +10714,7 @@
       <c r="T426" s="2"/>
       <c r="U426" s="1"/>
     </row>
-    <row r="427" spans="1:21">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -10737,7 +10737,7 @@
       <c r="T427" s="2"/>
       <c r="U427" s="1"/>
     </row>
-    <row r="428" spans="1:21">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -10760,7 +10760,7 @@
       <c r="T428" s="2"/>
       <c r="U428" s="1"/>
     </row>
-    <row r="429" spans="1:21">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -10783,7 +10783,7 @@
       <c r="T429" s="2"/>
       <c r="U429" s="1"/>
     </row>
-    <row r="430" spans="1:21">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -10806,7 +10806,7 @@
       <c r="T430" s="2"/>
       <c r="U430" s="1"/>
     </row>
-    <row r="431" spans="1:21">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -10829,7 +10829,7 @@
       <c r="T431" s="3"/>
       <c r="U431" s="1"/>
     </row>
-    <row r="432" spans="1:21">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -10852,7 +10852,7 @@
       <c r="T432" s="2"/>
       <c r="U432" s="2"/>
     </row>
-    <row r="433" spans="1:21">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -10875,7 +10875,7 @@
       <c r="T433" s="2"/>
       <c r="U433" s="2"/>
     </row>
-    <row r="434" spans="1:21">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -10898,7 +10898,7 @@
       <c r="T434" s="2"/>
       <c r="U434" s="1"/>
     </row>
-    <row r="435" spans="1:21">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -10921,7 +10921,7 @@
       <c r="T435" s="3"/>
       <c r="U435" s="1"/>
     </row>
-    <row r="436" spans="1:21">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -10944,7 +10944,7 @@
       <c r="T436" s="3"/>
       <c r="U436" s="1"/>
     </row>
-    <row r="437" spans="1:21">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -10967,7 +10967,7 @@
       <c r="T437" s="2"/>
       <c r="U437" s="1"/>
     </row>
-    <row r="438" spans="1:21">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -10990,7 +10990,7 @@
       <c r="T438" s="3"/>
       <c r="U438" s="1"/>
     </row>
-    <row r="439" spans="1:21">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -11013,7 +11013,7 @@
       <c r="T439" s="2"/>
       <c r="U439" s="1"/>
     </row>
-    <row r="440" spans="1:21">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -11036,7 +11036,7 @@
       <c r="T440" s="2"/>
       <c r="U440" s="1"/>
     </row>
-    <row r="441" spans="1:21">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -11059,7 +11059,7 @@
       <c r="T441" s="2"/>
       <c r="U441" s="1"/>
     </row>
-    <row r="442" spans="1:21">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -11082,7 +11082,7 @@
       <c r="T442" s="2"/>
       <c r="U442" s="1"/>
     </row>
-    <row r="443" spans="1:21">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -11105,7 +11105,7 @@
       <c r="T443" s="3"/>
       <c r="U443" s="1"/>
     </row>
-    <row r="444" spans="1:21">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -11128,7 +11128,7 @@
       <c r="T444" s="3"/>
       <c r="U444" s="1"/>
     </row>
-    <row r="445" spans="1:21">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -11151,7 +11151,7 @@
       <c r="T445" s="2"/>
       <c r="U445" s="1"/>
     </row>
-    <row r="446" spans="1:21">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -11174,7 +11174,7 @@
       <c r="T446" s="2"/>
       <c r="U446" s="1"/>
     </row>
-    <row r="447" spans="1:21">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -11197,7 +11197,7 @@
       <c r="T447" s="2"/>
       <c r="U447" s="1"/>
     </row>
-    <row r="448" spans="1:21">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -11220,7 +11220,7 @@
       <c r="T448" s="2"/>
       <c r="U448" s="1"/>
     </row>
-    <row r="449" spans="1:21">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -11243,7 +11243,7 @@
       <c r="T449" s="2"/>
       <c r="U449" s="1"/>
     </row>
-    <row r="450" spans="1:21">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -11266,7 +11266,7 @@
       <c r="T450" s="3"/>
       <c r="U450" s="1"/>
     </row>
-    <row r="451" spans="1:21">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -11289,7 +11289,7 @@
       <c r="T451" s="2"/>
       <c r="U451" s="2"/>
     </row>
-    <row r="452" spans="1:21">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -11312,7 +11312,7 @@
       <c r="T452" s="2"/>
       <c r="U452" s="2"/>
     </row>
-    <row r="453" spans="1:21">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -11335,7 +11335,7 @@
       <c r="T453" s="2"/>
       <c r="U453" s="2"/>
     </row>
-    <row r="454" spans="1:21">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -11358,7 +11358,7 @@
       <c r="T454" s="2"/>
       <c r="U454" s="2"/>
     </row>
-    <row r="455" spans="1:21">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -11381,7 +11381,7 @@
       <c r="T455" s="2"/>
       <c r="U455" s="1"/>
     </row>
-    <row r="456" spans="1:21">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -11404,7 +11404,7 @@
       <c r="T456" s="3"/>
       <c r="U456" s="1"/>
     </row>
-    <row r="457" spans="1:21">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -11427,7 +11427,7 @@
       <c r="T457" s="3"/>
       <c r="U457" s="1"/>
     </row>
-    <row r="458" spans="1:21">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -11450,7 +11450,7 @@
       <c r="T458" s="2"/>
       <c r="U458" s="1"/>
     </row>
-    <row r="459" spans="1:21">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -11473,7 +11473,7 @@
       <c r="T459" s="3"/>
       <c r="U459" s="1"/>
     </row>
-    <row r="460" spans="1:21">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -11496,7 +11496,7 @@
       <c r="T460" s="2"/>
       <c r="U460" s="1"/>
     </row>
-    <row r="461" spans="1:21">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -11519,7 +11519,7 @@
       <c r="T461" s="2"/>
       <c r="U461" s="1"/>
     </row>
-    <row r="462" spans="1:21">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -11542,7 +11542,7 @@
       <c r="T462" s="2"/>
       <c r="U462" s="1"/>
     </row>
-    <row r="463" spans="1:21">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -11565,7 +11565,7 @@
       <c r="T463" s="2"/>
       <c r="U463" s="1"/>
     </row>
-    <row r="464" spans="1:21">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -11588,7 +11588,7 @@
       <c r="T464" s="3"/>
       <c r="U464" s="1"/>
     </row>
-    <row r="465" spans="1:21">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -11611,7 +11611,7 @@
       <c r="T465" s="3"/>
       <c r="U465" s="1"/>
     </row>
-    <row r="466" spans="1:21">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -11634,7 +11634,7 @@
       <c r="T466" s="2"/>
       <c r="U466" s="1"/>
     </row>
-    <row r="467" spans="1:21">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -11657,7 +11657,7 @@
       <c r="T467" s="2"/>
       <c r="U467" s="1"/>
     </row>
-    <row r="468" spans="1:21">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -11680,7 +11680,7 @@
       <c r="T468" s="2"/>
       <c r="U468" s="1"/>
     </row>
-    <row r="469" spans="1:21">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -11703,7 +11703,7 @@
       <c r="T469" s="2"/>
       <c r="U469" s="1"/>
     </row>
-    <row r="470" spans="1:21">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -11726,7 +11726,7 @@
       <c r="T470" s="2"/>
       <c r="U470" s="1"/>
     </row>
-    <row r="471" spans="1:21">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -11749,7 +11749,7 @@
       <c r="T471" s="3"/>
       <c r="U471" s="1"/>
     </row>
-    <row r="472" spans="1:21">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -11772,7 +11772,7 @@
       <c r="T472" s="2"/>
       <c r="U472" s="2"/>
     </row>
-    <row r="473" spans="1:21">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -11795,7 +11795,7 @@
       <c r="T473" s="2"/>
       <c r="U473" s="2"/>
     </row>
-    <row r="474" spans="1:21">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -11818,7 +11818,7 @@
       <c r="T474" s="2"/>
       <c r="U474" s="1"/>
     </row>
-    <row r="475" spans="1:21">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -11841,7 +11841,7 @@
       <c r="T475" s="3"/>
       <c r="U475" s="1"/>
     </row>
-    <row r="476" spans="1:21">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -11864,7 +11864,7 @@
       <c r="T476" s="3"/>
       <c r="U476" s="1"/>
     </row>
-    <row r="477" spans="1:21">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -11887,7 +11887,7 @@
       <c r="T477" s="2"/>
       <c r="U477" s="1"/>
     </row>
-    <row r="478" spans="1:21">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -11910,7 +11910,7 @@
       <c r="T478" s="3"/>
       <c r="U478" s="1"/>
     </row>
-    <row r="479" spans="1:21">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -11933,7 +11933,7 @@
       <c r="T479" s="2"/>
       <c r="U479" s="1"/>
     </row>
-    <row r="480" spans="1:21">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -11956,7 +11956,7 @@
       <c r="T480" s="2"/>
       <c r="U480" s="1"/>
     </row>
-    <row r="481" spans="1:21">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -11979,7 +11979,7 @@
       <c r="T481" s="2"/>
       <c r="U481" s="1"/>
     </row>
-    <row r="482" spans="1:21">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -12002,7 +12002,7 @@
       <c r="T482" s="2"/>
       <c r="U482" s="1"/>
     </row>
-    <row r="483" spans="1:21">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -12025,7 +12025,7 @@
       <c r="T483" s="3"/>
       <c r="U483" s="1"/>
     </row>
-    <row r="484" spans="1:21">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -12048,7 +12048,7 @@
       <c r="T484" s="3"/>
       <c r="U484" s="1"/>
     </row>
-    <row r="485" spans="1:21">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -12071,7 +12071,7 @@
       <c r="T485" s="2"/>
       <c r="U485" s="1"/>
     </row>
-    <row r="486" spans="1:21">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -12094,7 +12094,7 @@
       <c r="T486" s="2"/>
       <c r="U486" s="1"/>
     </row>
-    <row r="487" spans="1:21">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -12117,7 +12117,7 @@
       <c r="T487" s="2"/>
       <c r="U487" s="1"/>
     </row>
-    <row r="488" spans="1:21">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -12140,7 +12140,7 @@
       <c r="T488" s="2"/>
       <c r="U488" s="1"/>
     </row>
-    <row r="489" spans="1:21">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -12163,7 +12163,7 @@
       <c r="T489" s="2"/>
       <c r="U489" s="1"/>
     </row>
-    <row r="490" spans="1:21">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -12186,7 +12186,7 @@
       <c r="T490" s="3"/>
       <c r="U490" s="1"/>
     </row>
-    <row r="491" spans="1:21">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -12209,7 +12209,7 @@
       <c r="T491" s="2"/>
       <c r="U491" s="3"/>
     </row>
-    <row r="492" spans="1:21">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -12232,7 +12232,7 @@
       <c r="T492" s="2"/>
       <c r="U492" s="3"/>
     </row>
-    <row r="493" spans="1:21">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -12255,7 +12255,7 @@
       <c r="T493" s="2"/>
       <c r="U493" s="1"/>
     </row>
-    <row r="494" spans="1:21">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -12278,7 +12278,7 @@
       <c r="T494" s="2"/>
       <c r="U494" s="1"/>
     </row>
-    <row r="495" spans="1:21">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -12301,7 +12301,7 @@
       <c r="T495" s="2"/>
       <c r="U495" s="1"/>
     </row>
-    <row r="496" spans="1:21">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -12324,7 +12324,7 @@
       <c r="T496" s="3"/>
       <c r="U496" s="1"/>
     </row>
-    <row r="497" spans="1:21">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -12347,7 +12347,7 @@
       <c r="T497" s="3"/>
       <c r="U497" s="1"/>
     </row>
-    <row r="498" spans="1:21">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -12370,7 +12370,7 @@
       <c r="T498" s="2"/>
       <c r="U498" s="1"/>
     </row>
-    <row r="499" spans="1:21">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -12393,7 +12393,7 @@
       <c r="T499" s="3"/>
       <c r="U499" s="1"/>
     </row>
-    <row r="500" spans="1:21">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -12416,7 +12416,7 @@
       <c r="T500" s="2"/>
       <c r="U500" s="1"/>
     </row>
-    <row r="501" spans="1:21">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -12439,7 +12439,7 @@
       <c r="T501" s="2"/>
       <c r="U501" s="1"/>
     </row>
-    <row r="502" spans="1:21">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -12462,7 +12462,7 @@
       <c r="T502" s="2"/>
       <c r="U502" s="1"/>
     </row>
-    <row r="503" spans="1:21">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -12485,7 +12485,7 @@
       <c r="T503" s="2"/>
       <c r="U503" s="1"/>
     </row>
-    <row r="504" spans="1:21">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -12508,7 +12508,7 @@
       <c r="T504" s="3"/>
       <c r="U504" s="1"/>
     </row>
-    <row r="505" spans="1:21">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -12531,7 +12531,7 @@
       <c r="T505" s="3"/>
       <c r="U505" s="1"/>
     </row>
-    <row r="506" spans="1:21">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -12554,7 +12554,7 @@
       <c r="T506" s="2"/>
       <c r="U506" s="1"/>
     </row>
-    <row r="507" spans="1:21">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -12577,7 +12577,7 @@
       <c r="T507" s="2"/>
       <c r="U507" s="1"/>
     </row>
-    <row r="508" spans="1:21">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -12600,7 +12600,7 @@
       <c r="T508" s="2"/>
       <c r="U508" s="1"/>
     </row>
-    <row r="509" spans="1:21">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -12623,7 +12623,7 @@
       <c r="T509" s="2"/>
       <c r="U509" s="1"/>
     </row>
-    <row r="510" spans="1:21">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -12646,7 +12646,7 @@
       <c r="T510" s="2"/>
       <c r="U510" s="1"/>
     </row>
-    <row r="511" spans="1:21">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -12669,7 +12669,7 @@
       <c r="T511" s="3"/>
       <c r="U511" s="1"/>
     </row>
-    <row r="512" spans="1:21">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -12692,7 +12692,7 @@
       <c r="T512" s="2"/>
       <c r="U512" s="2"/>
     </row>
-    <row r="513" spans="1:21">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -12715,7 +12715,7 @@
       <c r="T513" s="2"/>
       <c r="U513" s="2"/>
     </row>
-    <row r="514" spans="1:21">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -12738,7 +12738,7 @@
       <c r="T514" s="2"/>
       <c r="U514" s="1"/>
     </row>
-    <row r="515" spans="1:21">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -12761,7 +12761,7 @@
       <c r="T515" s="2"/>
       <c r="U515" s="1"/>
     </row>
-    <row r="516" spans="1:21">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -12784,7 +12784,7 @@
       <c r="T516" s="2"/>
       <c r="U516" s="1"/>
     </row>
-    <row r="517" spans="1:21">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -12807,7 +12807,7 @@
       <c r="T517" s="2"/>
       <c r="U517" s="1"/>
     </row>
-    <row r="518" spans="1:21">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -12830,7 +12830,7 @@
       <c r="T518" s="2"/>
       <c r="U518" s="1"/>
     </row>
-    <row r="519" spans="1:21">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -12853,7 +12853,7 @@
       <c r="T519" s="2"/>
       <c r="U519" s="2"/>
     </row>
-    <row r="520" spans="1:21">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -12876,7 +12876,7 @@
       <c r="T520" s="2"/>
       <c r="U520" s="2"/>
     </row>
-    <row r="521" spans="1:21">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -12899,7 +12899,7 @@
       <c r="T521" s="2"/>
       <c r="U521" s="2"/>
     </row>
-    <row r="522" spans="1:21">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -12922,7 +12922,7 @@
       <c r="T522" s="2"/>
       <c r="U522" s="2"/>
     </row>
-    <row r="523" spans="1:21">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -12945,7 +12945,7 @@
       <c r="T523" s="2"/>
       <c r="U523" s="2"/>
     </row>
-    <row r="524" spans="1:21">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -12968,7 +12968,7 @@
       <c r="T524" s="2"/>
       <c r="U524" s="2"/>
     </row>
-    <row r="525" spans="1:21">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -12991,7 +12991,7 @@
       <c r="T525" s="2"/>
       <c r="U525" s="2"/>
     </row>
-    <row r="526" spans="1:21">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -13014,7 +13014,7 @@
       <c r="T526" s="2"/>
       <c r="U526" s="2"/>
     </row>
-    <row r="527" spans="1:21">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -13037,7 +13037,7 @@
       <c r="T527" s="2"/>
       <c r="U527" s="2"/>
     </row>
-    <row r="528" spans="1:21">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -13060,7 +13060,7 @@
       <c r="T528" s="2"/>
       <c r="U528" s="2"/>
     </row>
-    <row r="529" spans="1:21">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -13083,7 +13083,7 @@
       <c r="T529" s="2"/>
       <c r="U529" s="2"/>
     </row>
-    <row r="530" spans="1:21">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -13106,7 +13106,7 @@
       <c r="T530" s="2"/>
       <c r="U530" s="2"/>
     </row>
-    <row r="531" spans="1:21">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -13129,7 +13129,7 @@
       <c r="T531" s="2"/>
       <c r="U531" s="2"/>
     </row>
-    <row r="532" spans="1:21">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -13152,7 +13152,7 @@
       <c r="T532" s="2"/>
       <c r="U532" s="2"/>
     </row>
-    <row r="533" spans="1:21">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -13175,7 +13175,7 @@
       <c r="T533" s="2"/>
       <c r="U533" s="2"/>
     </row>
-    <row r="534" spans="1:21">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -13198,7 +13198,7 @@
       <c r="T534" s="2"/>
       <c r="U534" s="2"/>
     </row>
-    <row r="535" spans="1:21">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -13221,7 +13221,7 @@
       <c r="T535" s="2"/>
       <c r="U535" s="2"/>
     </row>
-    <row r="536" spans="1:21">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -13244,7 +13244,7 @@
       <c r="T536" s="2"/>
       <c r="U536" s="2"/>
     </row>
-    <row r="537" spans="1:21">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -13267,7 +13267,7 @@
       <c r="T537" s="2"/>
       <c r="U537" s="2"/>
     </row>
-    <row r="538" spans="1:21">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -13290,7 +13290,7 @@
       <c r="T538" s="2"/>
       <c r="U538" s="2"/>
     </row>
-    <row r="539" spans="1:21">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -13313,7 +13313,7 @@
       <c r="T539" s="2"/>
       <c r="U539" s="2"/>
     </row>
-    <row r="540" spans="1:21">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -13336,7 +13336,7 @@
       <c r="T540" s="2"/>
       <c r="U540" s="1"/>
     </row>
-    <row r="541" spans="1:21">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -13359,7 +13359,7 @@
       <c r="T541" s="2"/>
       <c r="U541" s="1"/>
     </row>
-    <row r="542" spans="1:21">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -13382,7 +13382,7 @@
       <c r="T542" s="2"/>
       <c r="U542" s="1"/>
     </row>
-    <row r="543" spans="1:21">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -13405,7 +13405,7 @@
       <c r="T543" s="2"/>
       <c r="U543" s="1"/>
     </row>
-    <row r="544" spans="1:21">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -13428,7 +13428,7 @@
       <c r="T544" s="2"/>
       <c r="U544" s="1"/>
     </row>
-    <row r="545" spans="1:21">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -13451,7 +13451,7 @@
       <c r="T545" s="2"/>
       <c r="U545" s="2"/>
     </row>
-    <row r="546" spans="1:21">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -13474,7 +13474,7 @@
       <c r="T546" s="2"/>
       <c r="U546" s="2"/>
     </row>
-    <row r="547" spans="1:21">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -13496,7 +13496,7 @@
       <c r="T547" s="2"/>
       <c r="U547" s="1"/>
     </row>
-    <row r="548" spans="1:21">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -13519,7 +13519,7 @@
       <c r="T548" s="2"/>
       <c r="U548" s="1"/>
     </row>
-    <row r="549" spans="1:21">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -13542,7 +13542,7 @@
       <c r="T549" s="2"/>
       <c r="U549" s="1"/>
     </row>
-    <row r="550" spans="1:21">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -13565,7 +13565,7 @@
       <c r="T550" s="2"/>
       <c r="U550" s="1"/>
     </row>
-    <row r="551" spans="1:21">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -13588,7 +13588,7 @@
       <c r="T551" s="2"/>
       <c r="U551" s="1"/>
     </row>
-    <row r="552" spans="1:21">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -13611,7 +13611,7 @@
       <c r="T552" s="2"/>
       <c r="U552" s="2"/>
     </row>
-    <row r="553" spans="1:21">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -13634,7 +13634,7 @@
       <c r="T553" s="2"/>
       <c r="U553" s="2"/>
     </row>
-    <row r="554" spans="1:21">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -13657,7 +13657,7 @@
       <c r="T554" s="2"/>
       <c r="U554" s="1"/>
     </row>
-    <row r="555" spans="1:21">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -13680,7 +13680,7 @@
       <c r="T555" s="2"/>
       <c r="U555" s="1"/>
     </row>
-    <row r="556" spans="1:21">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -13703,7 +13703,7 @@
       <c r="T556" s="2"/>
       <c r="U556" s="1"/>
     </row>
-    <row r="557" spans="1:21">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -13726,7 +13726,7 @@
       <c r="T557" s="2"/>
       <c r="U557" s="1"/>
     </row>
-    <row r="558" spans="1:21">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
